--- a/视听练耳.xlsx
+++ b/视听练耳.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>小二度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,62 @@
   </si>
   <si>
     <t>幸福享不也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/30/300988.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小二度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是我们好朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/73787.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈对我讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海啊故乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随我漂流四方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海啊故乡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +565,7 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +596,7 @@
         <v>17671</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -551,13 +607,50 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>17671</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>43161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -577,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -597,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -617,24 +710,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>563</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>4543161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -642,132 +738,192 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
+        <v>563</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
         <v>6535</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>1616164</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>76533</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
+      <c r="B26">
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>2432121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>35165</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>5321615</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F30" t="s">
         <v>33</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1616164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>13212161</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B35">
+      <c r="B38">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>25</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>31331</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>15</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>15563</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>29</v>
       </c>
     </row>

--- a/视听练耳.xlsx
+++ b/视听练耳.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>小二度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数鸭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门前大桥下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数不清到底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世上只有妈妈好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qinyipu.com/jianpu/ertonggequ/2298.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福享不也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/30/300988.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小二度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是我们好朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/73787.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海啊故乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海啊故乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他会接受我吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/15/153681.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青花瓷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青花瓷 第一句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小毛驴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4446333222255 小毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/62971.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/86/86497.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小步舞曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长亭外，古道边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qinyipu.com/jianpu/ertonggequ/20271.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4240266653 好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小跳蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大嘴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁祝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/11/111212.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们活泼又聪明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/46/46729.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随我漂流四方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好216116116165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>飘荡在水中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,95 +318,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数鸭子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门前大桥下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1到e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数不清到底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3到5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世上只有妈妈好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.qinyipu.com/jianpu/ertonggequ/2298.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福享不也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水一方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jianpu.cn/pu/30/300988.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小二度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是我们好朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gepuwang.net/gepu/73787.html</t>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老男孩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妈妈对我讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大海啊故乡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gepuwang.net/gepu/45920.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gepuwang.net/gepu/45920.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海里成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随我漂流四方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大海啊故乡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,12 +350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,8 +376,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -553,15 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,87 +736,99 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>17671</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>43161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>345</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5">
-        <v>43161</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>12315</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>12315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>235612</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -695,42 +836,62 @@
         <v>15</v>
       </c>
       <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>235612</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>3212</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
         <v>4543161</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -738,193 +899,420 @@
         <v>15</v>
       </c>
       <c r="B18">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>5453212</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>563</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>6535</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>671</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>76533</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>2432121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
         <v>42</v>
       </c>
-      <c r="E23">
-        <v>76533</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26">
-        <v>2432121</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>35165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30">
-        <v>5321615</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>35165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>5321615</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>5351615</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
         <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34">
-        <v>1616164</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>13212161</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>1616164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>3572615</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2343527</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>13212161</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>31331</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>64567111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>25</v>
       </c>
-      <c r="E38">
-        <v>31331</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>15563</v>
+      </c>
+      <c r="F61" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48">
-        <v>15563</v>
-      </c>
-      <c r="F48" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/视听练耳.xlsx
+++ b/视听练耳.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
   <si>
     <t>小二度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,14 +327,30 @@
   </si>
   <si>
     <t>妈妈对我讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDDCBCAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甩葱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBGAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共产儿童团歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +364,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -373,16 +396,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -504,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,21 +707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="1" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +755,7 @@
         <v>17671</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -742,7 +772,7 @@
         <v>17671</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -765,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -788,7 +818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -808,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -831,7 +861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -851,7 +881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -871,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -894,7 +924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -913,11 +943,11 @@
       <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -937,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -957,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -980,7 +1010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1022,11 +1052,11 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1045,17 +1075,17 @@
       <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1102,7 @@
         <v>35165</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1091,11 +1121,11 @@
       <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1154,11 +1184,11 @@
       <c r="E41" t="s">
         <v>65</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1234,11 +1264,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1271,11 +1301,17 @@
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
       <c r="F52">
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1285,20 +1321,26 @@
       <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>80</v>
+      </c>
       <c r="F53">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="57" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="58" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="59" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1313,6 +1355,308 @@
       </c>
       <c r="F61" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="G31" r:id="rId2"/>
+    <hyperlink ref="G32" r:id="rId3"/>
+    <hyperlink ref="G35" r:id="rId4"/>
+    <hyperlink ref="F41" r:id="rId5"/>
+    <hyperlink ref="G49" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>17671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>17671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>43161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>12315</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>235612</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>3212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>4543161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>5453212</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>563</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>6535</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>671</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>76533</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1322,26 +1666,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/视听练耳.xlsx
+++ b/视听练耳.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="练习" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
   <si>
     <t>小二度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,91 +258,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/46/46729.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随我漂流四方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘荡在水中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gepuwang.net/gepu/45920.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老男孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈对我讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甩葱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共产儿童团歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4240266653 好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起来一厨啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianpu.cn/pu/11/111212.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好2161 161 16165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDDCBCAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混作滔滔一片潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们荡起双桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愿逆流而上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1到C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1到F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1到E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2到B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1到D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1到C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1到E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1到D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1到G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1到F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1到A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1到G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1到B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1到A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1到F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1到D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1到G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1到E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1到C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2到A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1到D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2到B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1到E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1到C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1到A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1到F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1到B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1到G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海啊故乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdecg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35165 EGACG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>梁祝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.gepuwang.net/gepu/45920.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jianpu.cn/pu/46/46729.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随我漂流四方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘荡在水中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gepuwang.net/gepu/45920.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老男孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈妈对我讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甩葱歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共产儿童团歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小厨师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4446333222255好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4240266653 好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一起来一厨啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jianpu.cn/pu/11/111212.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好2161 161 16165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBDDCBCAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBGAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">612 3 2761 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混作滔滔一片潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们荡起双桨</t>
+    <t>上海滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612 3 27615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4446333322225好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,119 +494,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我愿逆流而上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1到C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1到F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1到E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2到B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1到D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1到C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1到E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1到D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1到G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1到F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1到A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1到G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1到B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1到A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1到F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1到D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1到G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1到E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1到C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2到A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1到D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2到B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1到E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1到C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1到A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1到F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1到B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1到G1</t>
+    <t>645671下八11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBGAD BGAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,18 +911,18 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>345</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -898,42 +934,47 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="4">
         <v>43161</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4">
         <v>712711</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>73</v>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -941,38 +982,43 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>17671</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>12315</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -981,42 +1027,47 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,42 +1075,47 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>3212</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>4543161</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1067,41 +1123,46 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4">
         <v>5453212</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>563</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1110,38 +1171,43 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>6535</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>671</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1153,19 +1219,19 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>76533</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
+      <c r="F21" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>35</v>
@@ -1176,18 +1242,18 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>2432121</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1199,18 +1265,18 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -1221,65 +1287,73 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1">
-        <v>35165</v>
-      </c>
+      <c r="E30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>5321615</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>5351615</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1291,40 +1365,45 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>1616164</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="4">
         <v>3572615</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1332,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
-        <v>2343527</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>80</v>
+      <c r="D37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1352,18 +1431,18 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1">
-        <v>13212161</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="4">
+        <v>132121615</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1372,37 +1451,48 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>31331</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
         <v>49</v>
       </c>
@@ -1412,63 +1502,64 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="1">
-        <v>64567111</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="1">
-        <v>135</v>
-      </c>
+      <c r="D47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="1">
-        <v>56</v>
-      </c>
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
@@ -1514,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1548,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -1568,13 +1659,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4">
         <v>43161</v>
@@ -1588,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4">
         <v>712711</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1608,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1620,7 +1711,7 @@
         <v>17671</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1628,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -1648,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -1657,7 +1748,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>45</v>
@@ -1668,19 +1759,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1688,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -1708,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -1720,7 +1811,7 @@
         <v>4543161</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1728,13 +1819,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4">
         <v>5453212</v>
@@ -1748,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
@@ -1768,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -1788,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
@@ -1808,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>41</v>
@@ -1820,7 +1911,7 @@
         <v>76533</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1828,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -1848,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>46</v>
@@ -1857,7 +1948,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>59</v>
@@ -1874,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
@@ -1882,8 +1973,8 @@
       <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="4">
-        <v>35165</v>
+      <c r="E27" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1891,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>46</v>
@@ -1911,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
@@ -1931,10 +2022,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>18</v>
@@ -1951,16 +2042,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="4">
         <v>3572615</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -1969,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="4">
-        <v>2343527</v>
+      <c r="D34" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1989,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>53</v>
@@ -1998,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="4">
-        <v>13212161</v>
+        <v>132121615</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -2009,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
@@ -2029,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>2</v>
@@ -2038,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -2046,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>46</v>
@@ -2054,8 +2145,8 @@
       <c r="D42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="4">
-        <v>64567111</v>
+      <c r="E42" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>52</v>
@@ -2066,19 +2157,16 @@
         <v>10</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="4">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -2086,19 +2174,16 @@
         <v>10</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="4">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2110,12 +2195,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C10:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
